--- a/public/plantillas/Postulantes_Postgrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Postulantes_Postgrado_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
   <si>
     <t>N°</t>
   </si>
@@ -399,12 +399,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Indicador si el postulante sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -632,13 +626,22 @@
   <si>
     <t>Error en la Columna CORREO ELECTRÓNICO:
 El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna Z, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el postulante sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -731,6 +734,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -830,7 +840,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -904,6 +914,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1215,7 +1226,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,10 +1267,10 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -1319,7 +1330,7 @@
         <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y1" t="s">
         <v>46</v>
@@ -1342,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -1405,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>20</v>
@@ -1430,7 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1444,7 +1457,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1455,6 +1468,11 @@
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>50</v>
@@ -1551,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>65</v>
@@ -1563,7 +1581,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>96</v>
@@ -1572,7 +1590,7 @@
         <v>69</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
@@ -1580,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>65</v>
@@ -1595,13 +1613,13 @@
         <v>91</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
@@ -1630,7 +1648,7 @@
         <v>74</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1659,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1688,7 +1706,7 @@
         <v>79</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1717,7 +1735,7 @@
         <v>81</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1746,7 +1764,7 @@
         <v>82</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1775,7 +1793,7 @@
         <v>85</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1804,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1860,7 +1878,7 @@
         <v>96</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1889,7 +1907,7 @@
         <v>99</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1918,7 +1936,7 @@
         <v>102</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1947,7 +1965,7 @@
         <v>106</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1958,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>70</v>
@@ -1976,7 +1994,7 @@
         <v>110</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1987,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>87</v>
@@ -1999,13 +2017,13 @@
         <v>91</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2016,25 +2034,25 @@
         <v>14</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G26" s="20">
         <v>158</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2045,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>65</v>
@@ -2057,13 +2075,13 @@
         <v>91</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2074,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>65</v>
@@ -2086,13 +2104,13 @@
         <v>91</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2103,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>65</v>
@@ -2115,13 +2133,13 @@
         <v>91</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2132,7 +2150,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>65</v>
@@ -2144,13 +2162,13 @@
         <v>91</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2158,10 +2176,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>65</v>
@@ -2173,13 +2191,13 @@
         <v>91</v>
       </c>
       <c r="G31" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2190,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>65</v>
@@ -2202,13 +2220,13 @@
         <v>91</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2219,25 +2237,25 @@
         <v>21</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="H33" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2248,7 +2266,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>60</v>
@@ -2263,7 +2281,7 @@
         <v>945625285</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -2275,7 +2293,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>60</v>
@@ -2288,7 +2306,7 @@
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I35" s="13"/>
     </row>
@@ -2297,6 +2315,6 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>